--- a/dados/Dados_Python.xlsx
+++ b/dados/Dados_Python.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fe_ta\OneDrive\Documentos\facul\IA\Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fe_ta\OneDrive\Documentos\facul\IA\Projeto_IA\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{848D2792-A445-4A7E-AE79-0BC30F40B630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD8E34F-3891-410D-AA6C-CA4CDE149824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E554B76-7687-43BC-B88C-7F0C5146A22C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Experiência</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Ruim</t>
   </si>
   <si>
-    <t>Bom</t>
+    <t>Boa</t>
   </si>
 </sst>
 </file>
@@ -253,7 +253,6 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -281,16 +280,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC64C88-B8A9-48A8-B287-3CC6863C442A}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,48 +623,58 @@
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>2</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>1500</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>4</v>
       </c>
@@ -675,699 +687,735 @@
       <c r="D4" s="14">
         <v>4500</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>0</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>6</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>15</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>4500</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="8"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="8"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="8"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="8"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="8"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="8"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="8"/>
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="8"/>
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="8"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="8"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="8"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="8"/>
+      <c r="A57" s="5"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="8"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="8"/>
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="8"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="8"/>
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="8"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="8"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="8"/>
+      <c r="A64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="8"/>
+      <c r="A65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="8"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="8"/>
+      <c r="A67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="8"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="8"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="8"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="8"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="8"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="7"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="8"/>
+      <c r="A73" s="5"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="8"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="8"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="8"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="8"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="8"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="8"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="8"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="8"/>
+      <c r="A81" s="5"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="8"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="8"/>
+      <c r="A83" s="5"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="8"/>
+      <c r="A84" s="5"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="8"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="8"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="8"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="8"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="6"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="8"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="8"/>
+      <c r="A90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="7"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="8"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="8"/>
+      <c r="A92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="8"/>
+      <c r="A93" s="5"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="8"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="8"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="8"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="7"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="8"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="8"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="7"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="8"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="7"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="9"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="11"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="10"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/dados/Dados_Python.xlsx
+++ b/dados/Dados_Python.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fe_ta\OneDrive\Documentos\facul\IA\Projeto_IA\dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gutol\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD8E34F-3891-410D-AA6C-CA4CDE149824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D93EDB-C79A-4244-8A8E-6AA2F23F6767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E554B76-7687-43BC-B88C-7F0C5146A22C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{1E554B76-7687-43BC-B88C-7F0C5146A22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados_Python" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="45">
   <si>
     <t>Experiência</t>
   </si>
@@ -54,14 +54,128 @@
     <t>Ruim</t>
   </si>
   <si>
-    <t>Boa</t>
+    <t>Bom</t>
+  </si>
+  <si>
+    <t>dev pleno</t>
+  </si>
+  <si>
+    <t>dev full stack</t>
+  </si>
+  <si>
+    <t>dev back end</t>
+  </si>
+  <si>
+    <t>fullstack</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>senior backend</t>
+  </si>
+  <si>
+    <t>squad leader</t>
+  </si>
+  <si>
+    <t>fullstack pleno</t>
+  </si>
+  <si>
+    <t>master software engineer</t>
+  </si>
+  <si>
+    <t>front end pleno</t>
+  </si>
+  <si>
+    <t>senior full stack</t>
+  </si>
+  <si>
+    <t>maior 500</t>
+  </si>
+  <si>
+    <t>eng software</t>
+  </si>
+  <si>
+    <t>eng software senior</t>
+  </si>
+  <si>
+    <t>cto</t>
+  </si>
+  <si>
+    <t>estagio</t>
+  </si>
+  <si>
+    <t>tec sistemas</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>tech lead</t>
+  </si>
+  <si>
+    <t>engenheiro da comp</t>
+  </si>
+  <si>
+    <t>eng soft trainee</t>
+  </si>
+  <si>
+    <t>system specialist</t>
+  </si>
+  <si>
+    <t>estasgia</t>
+  </si>
+  <si>
+    <t>seguranca</t>
+  </si>
+  <si>
+    <t>backend</t>
+  </si>
+  <si>
+    <t>ux designer</t>
+  </si>
+  <si>
+    <t>soft eng</t>
+  </si>
+  <si>
+    <t>eng soft</t>
+  </si>
+  <si>
+    <t>staff engin</t>
+  </si>
+  <si>
+    <t>sof eng</t>
+  </si>
+  <si>
+    <t>devops</t>
+  </si>
+  <si>
+    <t>eng sof</t>
+  </si>
+  <si>
+    <t>enf sof</t>
+  </si>
+  <si>
+    <t>estagio analytics</t>
+  </si>
+  <si>
+    <t>estagio gestao de operacao</t>
+  </si>
+  <si>
+    <t>estagio itau</t>
+  </si>
+  <si>
+    <t>analise de dados</t>
+  </si>
+  <si>
+    <t>esatagio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,14 +185,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -250,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -280,19 +386,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -311,9 +410,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -351,7 +450,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -457,7 +556,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -599,7 +698,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -607,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC64C88-B8A9-48A8-B287-3CC6863C442A}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +722,7 @@
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -640,522 +739,1221 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
       </c>
       <c r="C2" s="6">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="D2" s="6">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D3" s="6">
-        <v>1</v>
+        <v>7000</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>7</v>
+      </c>
+      <c r="B4" s="12">
         <v>4</v>
       </c>
-      <c r="B4" s="14">
-        <v>6</v>
-      </c>
-      <c r="C4" s="14">
-        <v>15</v>
-      </c>
-      <c r="D4" s="14">
-        <v>4500</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="12">
+        <v>401</v>
+      </c>
+      <c r="D4" s="12">
+        <v>7000</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="6">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6000</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4000</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6">
+        <v>480</v>
+      </c>
+      <c r="D9" s="6">
+        <v>13000</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6">
+        <v>187</v>
+      </c>
+      <c r="D10" s="6">
+        <v>9000</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6">
+        <v>27</v>
+      </c>
+      <c r="C11" s="6">
+        <v>219</v>
+      </c>
+      <c r="D11" s="6">
+        <v>13000</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>218</v>
+      </c>
+      <c r="D12" s="6">
+        <v>7000</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>87</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6">
+        <v>73</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="6">
+        <v>15000</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>7</v>
+      </c>
+      <c r="B15" s="6">
+        <v>144</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6">
+        <v>15000</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>10</v>
+      </c>
+      <c r="B16" s="6">
+        <v>336</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6">
+        <v>15000</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>579</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C18" s="6">
+        <v>122</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
+        <v>25</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6">
+        <v>12</v>
+      </c>
+      <c r="C20" s="6">
+        <v>262</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="C21" s="6">
+        <v>49</v>
+      </c>
+      <c r="D21" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>4</v>
+      </c>
+      <c r="B22" s="6">
+        <v>270</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="6">
+        <v>14000</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>4</v>
+      </c>
+      <c r="B23" s="6">
         <v>0</v>
       </c>
-      <c r="B8" s="6">
+      <c r="C23" s="6">
+        <v>458</v>
+      </c>
+      <c r="D23" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>3</v>
+      </c>
+      <c r="B24" s="6">
+        <v>22</v>
+      </c>
+      <c r="C24" s="6">
+        <v>190</v>
+      </c>
+      <c r="D24" s="6">
+        <v>17000</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>4</v>
+      </c>
+      <c r="B25" s="6">
         <v>0</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C25" s="6">
+        <v>224</v>
+      </c>
+      <c r="D25" s="6">
+        <v>6000</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="B26" s="6">
+        <v>8</v>
+      </c>
+      <c r="C26" s="6">
+        <v>179</v>
+      </c>
+      <c r="D26" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>6</v>
+      </c>
+      <c r="B27" s="6">
+        <v>14</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>2</v>
+      </c>
+      <c r="B28" s="6">
+        <v>9</v>
+      </c>
+      <c r="C28" s="6">
+        <v>274</v>
+      </c>
+      <c r="D28" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="B29" s="6">
+        <v>3</v>
+      </c>
+      <c r="C29" s="6">
+        <v>127</v>
+      </c>
+      <c r="D29" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>3</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6">
+        <v>218</v>
+      </c>
+      <c r="D30" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>2</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6">
+        <v>126</v>
+      </c>
+      <c r="D31" s="6">
+        <v>8000</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6">
+        <v>163</v>
+      </c>
+      <c r="D32" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>3</v>
+      </c>
+      <c r="B33" s="6">
+        <v>28</v>
+      </c>
+      <c r="C33" s="6">
+        <v>467</v>
+      </c>
+      <c r="D33" s="6">
+        <v>6000</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="6">
-        <v>6</v>
-      </c>
-      <c r="C18" s="6">
-        <v>15</v>
-      </c>
-      <c r="D18" s="6">
-        <v>4500</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="7"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <v>29</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>2</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6">
+        <v>23</v>
+      </c>
+      <c r="D35" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>5</v>
+      </c>
+      <c r="B36" s="6">
+        <v>5</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>2</v>
+      </c>
+      <c r="B37" s="6">
+        <v>7</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>7</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6">
+        <v>320</v>
+      </c>
+      <c r="D38" s="6">
+        <v>12000</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>5</v>
+      </c>
+      <c r="B39" s="6">
+        <v>52</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="6">
+        <v>12000</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>11</v>
+      </c>
+      <c r="B40" s="6">
+        <v>7</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="6">
+        <v>19000</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>7</v>
+      </c>
+      <c r="B41" s="6">
+        <v>0</v>
+      </c>
+      <c r="C41" s="6">
+        <v>95</v>
+      </c>
+      <c r="D41" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>3</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0</v>
+      </c>
+      <c r="C42" s="6">
+        <v>168</v>
+      </c>
+      <c r="D42" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>3</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0</v>
+      </c>
+      <c r="C43" s="6">
+        <v>269</v>
+      </c>
+      <c r="D43" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>1</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0</v>
+      </c>
+      <c r="C44" s="6">
+        <v>45</v>
+      </c>
+      <c r="D44" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>3</v>
+      </c>
+      <c r="B45" s="6">
+        <v>6</v>
+      </c>
+      <c r="C45" s="6">
+        <v>326</v>
+      </c>
+      <c r="D45" s="6">
+        <v>9000</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>3</v>
+      </c>
+      <c r="B46" s="6">
+        <v>7</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="6">
+        <v>13000</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>9</v>
+      </c>
+      <c r="B47" s="6">
+        <v>7</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="6">
+        <v>13000</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>14</v>
+      </c>
+      <c r="B48" s="6">
+        <v>214</v>
+      </c>
+      <c r="C48" s="6">
+        <v>456</v>
+      </c>
+      <c r="D48" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>4</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0</v>
+      </c>
+      <c r="C49" s="6">
+        <v>34</v>
+      </c>
+      <c r="D49" s="6">
+        <v>12000</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>4</v>
+      </c>
+      <c r="B50" s="6">
+        <v>16</v>
+      </c>
+      <c r="C50" s="6">
+        <v>172</v>
+      </c>
+      <c r="D50" s="6">
+        <v>14000</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>5</v>
+      </c>
+      <c r="B51" s="6">
+        <v>67</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="6">
+        <v>13000</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>3</v>
+      </c>
+      <c r="B52" s="6">
+        <v>357</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>1</v>
+      </c>
+      <c r="B53" s="6">
+        <v>1</v>
+      </c>
+      <c r="C53" s="6">
+        <v>203</v>
+      </c>
+      <c r="D53" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>3</v>
+      </c>
+      <c r="B54" s="6">
+        <v>6</v>
+      </c>
+      <c r="C54" s="6">
+        <v>379</v>
+      </c>
+      <c r="D54" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>2</v>
+      </c>
+      <c r="B55" s="6">
+        <v>12</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="6">
+        <v>3000</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>3</v>
+      </c>
+      <c r="B56" s="6">
+        <v>10</v>
+      </c>
+      <c r="C56" s="6">
+        <v>435</v>
+      </c>
+      <c r="D56" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>1</v>
+      </c>
+      <c r="B57" s="6">
+        <v>0</v>
+      </c>
+      <c r="C57" s="6">
+        <v>409</v>
+      </c>
+      <c r="D57" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>1</v>
+      </c>
+      <c r="B58" s="6">
+        <v>0</v>
+      </c>
+      <c r="C58" s="6">
+        <v>293</v>
+      </c>
+      <c r="D58" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>8</v>
+      </c>
+      <c r="B59" s="6">
+        <v>428</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="6">
+        <v>15000</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>5</v>
+      </c>
+      <c r="B60" s="6">
+        <v>3</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="6">
+        <v>13000</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>7</v>
+      </c>
+      <c r="B61" s="6">
+        <v>0</v>
+      </c>
+      <c r="C61" s="6">
+        <v>325</v>
+      </c>
+      <c r="D61" s="6">
+        <v>6000</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>

--- a/dados/Dados_Python.xlsx
+++ b/dados/Dados_Python.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gutol\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fe_ta\OneDrive\Documentos\facul\IA\Projeto_IA\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D93EDB-C79A-4244-8A8E-6AA2F23F6767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C59E22-26DC-474D-BB13-5B785C0E6ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{1E554B76-7687-43BC-B88C-7F0C5146A22C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1E554B76-7687-43BC-B88C-7F0C5146A22C}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados_Python" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="45">
   <si>
     <t>Experiência</t>
   </si>
@@ -90,9 +90,6 @@
     <t>senior full stack</t>
   </si>
   <si>
-    <t>maior 500</t>
-  </si>
-  <si>
     <t>eng software</t>
   </si>
   <si>
@@ -169,13 +166,16 @@
   </si>
   <si>
     <t>esatagio</t>
+  </si>
+  <si>
+    <t>Profissão</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +185,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -386,12 +394,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,9 +414,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -450,7 +454,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -556,7 +560,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -698,7 +702,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -706,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC64C88-B8A9-48A8-B287-3CC6863C442A}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,6 +742,9 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
@@ -766,8 +773,8 @@
       <c r="B3" s="6">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
+      <c r="C3" s="6">
+        <v>500</v>
       </c>
       <c r="D3" s="6">
         <v>7000</v>
@@ -780,16 +787,16 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="5">
         <v>7</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="6">
         <v>4</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>401</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>7000</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -806,8 +813,8 @@
       <c r="B5" s="6">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>18</v>
+      <c r="C5" s="6">
+        <v>500</v>
       </c>
       <c r="D5" s="6">
         <v>5000</v>
@@ -826,8 +833,8 @@
       <c r="B6" s="6">
         <v>28</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>18</v>
+      <c r="C6" s="6">
+        <v>500</v>
       </c>
       <c r="D6" s="6">
         <v>6000</v>
@@ -846,8 +853,8 @@
       <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
+      <c r="C7" s="6">
+        <v>500</v>
       </c>
       <c r="D7" s="6">
         <v>4000</v>
@@ -866,8 +873,8 @@
       <c r="B8" s="6">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
+      <c r="C8" s="6">
+        <v>50</v>
       </c>
       <c r="D8" s="6">
         <v>10000</v>
@@ -966,8 +973,8 @@
       <c r="B13" s="6">
         <v>87</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
+      <c r="C13" s="6">
+        <v>500</v>
       </c>
       <c r="D13" s="6">
         <v>10000</v>
@@ -986,8 +993,8 @@
       <c r="B14" s="6">
         <v>73</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>18</v>
+      <c r="C14" s="6">
+        <v>50</v>
       </c>
       <c r="D14" s="6">
         <v>15000</v>
@@ -996,7 +1003,7 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1006,8 +1013,8 @@
       <c r="B15" s="6">
         <v>144</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>18</v>
+      <c r="C15" s="6">
+        <v>500</v>
       </c>
       <c r="D15" s="6">
         <v>15000</v>
@@ -1016,7 +1023,7 @@
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1026,8 +1033,8 @@
       <c r="B16" s="6">
         <v>336</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>18</v>
+      <c r="C16" s="6">
+        <v>500</v>
       </c>
       <c r="D16" s="6">
         <v>15000</v>
@@ -1036,18 +1043,18 @@
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="6">
         <v>579</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>18</v>
+      <c r="C17" s="6">
+        <v>500</v>
       </c>
       <c r="D17" s="6">
         <v>20000</v>
@@ -1056,10 +1063,11 @@
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>1</v>
       </c>
@@ -1076,10 +1084,10 @@
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>1</v>
       </c>
@@ -1096,10 +1104,10 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2</v>
       </c>
@@ -1116,10 +1124,10 @@
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2</v>
       </c>
@@ -1136,18 +1144,18 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>4</v>
       </c>
       <c r="B22" s="6">
         <v>270</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>18</v>
+      <c r="C22" s="6">
+        <v>500</v>
       </c>
       <c r="D22" s="6">
         <v>14000</v>
@@ -1156,10 +1164,10 @@
         <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>4</v>
       </c>
@@ -1176,10 +1184,10 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>3</v>
       </c>
@@ -1196,10 +1204,10 @@
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>4</v>
       </c>
@@ -1216,10 +1224,10 @@
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>1</v>
       </c>
@@ -1236,18 +1244,18 @@
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>6</v>
       </c>
       <c r="B27" s="6">
         <v>14</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>18</v>
+      <c r="C27" s="6">
+        <v>500</v>
       </c>
       <c r="D27" s="6">
         <v>10000</v>
@@ -1256,10 +1264,10 @@
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>2</v>
       </c>
@@ -1276,10 +1284,10 @@
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>1</v>
       </c>
@@ -1296,10 +1304,10 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>3</v>
       </c>
@@ -1319,7 +1327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>2</v>
       </c>
@@ -1336,10 +1344,10 @@
         <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>1</v>
       </c>
@@ -1356,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1376,7 +1384,7 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,8 +1394,8 @@
       <c r="B34" s="6">
         <v>29</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>18</v>
+      <c r="C34" s="6">
+        <v>500</v>
       </c>
       <c r="D34" s="6">
         <v>10000</v>
@@ -1416,7 +1424,7 @@
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1426,8 +1434,8 @@
       <c r="B36" s="6">
         <v>5</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>18</v>
+      <c r="C36" s="6">
+        <v>500</v>
       </c>
       <c r="D36" s="6">
         <v>5000</v>
@@ -1436,7 +1444,7 @@
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1446,8 +1454,8 @@
       <c r="B37" s="6">
         <v>7</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>18</v>
+      <c r="C37" s="6">
+        <v>500</v>
       </c>
       <c r="D37" s="6">
         <v>2000</v>
@@ -1456,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1476,7 +1484,7 @@
         <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1486,8 +1494,8 @@
       <c r="B39" s="6">
         <v>52</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>18</v>
+      <c r="C39" s="6">
+        <v>500</v>
       </c>
       <c r="D39" s="6">
         <v>12000</v>
@@ -1496,7 +1504,7 @@
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1506,8 +1514,8 @@
       <c r="B40" s="6">
         <v>7</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>18</v>
+      <c r="C40" s="6">
+        <v>500</v>
       </c>
       <c r="D40" s="6">
         <v>19000</v>
@@ -1516,7 +1524,7 @@
         <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1536,7 +1544,7 @@
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1556,7 +1564,7 @@
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1576,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1596,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1616,7 +1624,7 @@
         <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1626,8 +1634,8 @@
       <c r="B46" s="6">
         <v>7</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>18</v>
+      <c r="C46" s="6">
+        <v>500</v>
       </c>
       <c r="D46" s="6">
         <v>13000</v>
@@ -1636,7 +1644,7 @@
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1646,8 +1654,8 @@
       <c r="B47" s="6">
         <v>7</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>18</v>
+      <c r="C47" s="6">
+        <v>500</v>
       </c>
       <c r="D47" s="6">
         <v>13000</v>
@@ -1656,7 +1664,7 @@
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1676,7 +1684,7 @@
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1696,7 +1704,7 @@
         <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1716,7 +1724,7 @@
         <v>6</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1726,8 +1734,8 @@
       <c r="B51" s="6">
         <v>67</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>18</v>
+      <c r="C51" s="6">
+        <v>500</v>
       </c>
       <c r="D51" s="6">
         <v>13000</v>
@@ -1736,7 +1744,7 @@
         <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1746,8 +1754,8 @@
       <c r="B52" s="6">
         <v>357</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>18</v>
+      <c r="C52" s="6">
+        <v>500</v>
       </c>
       <c r="D52" s="6">
         <v>2000</v>
@@ -1756,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1776,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1796,7 +1804,7 @@
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1806,8 +1814,8 @@
       <c r="B55" s="6">
         <v>12</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>18</v>
+      <c r="C55" s="6">
+        <v>500</v>
       </c>
       <c r="D55" s="6">
         <v>3000</v>
@@ -1816,7 +1824,7 @@
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1836,7 +1844,7 @@
         <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1856,7 +1864,7 @@
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1876,7 +1884,7 @@
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1886,8 +1894,8 @@
       <c r="B59" s="6">
         <v>428</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>18</v>
+      <c r="C59" s="6">
+        <v>500</v>
       </c>
       <c r="D59" s="6">
         <v>15000</v>
@@ -1896,7 +1904,7 @@
         <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1906,8 +1914,8 @@
       <c r="B60" s="6">
         <v>3</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>18</v>
+      <c r="C60" s="6">
+        <v>500</v>
       </c>
       <c r="D60" s="6">
         <v>13000</v>
@@ -1916,7 +1924,7 @@
         <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2217,5 +2225,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dados/Dados_Python.xlsx
+++ b/dados/Dados_Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fe_ta\OneDrive\Documentos\facul\IA\Projeto_IA\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01521F2-84D7-4C8B-9A04-22A4F3C3E176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B73069B-7CF2-45EE-8EFB-3DB9ABCA26B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,8 +30,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Felipe Tanus Rodrigues</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{926F30CE-B513-426A-A99C-68E16CB9D837}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Felipe Tanus Rodrigues:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Bons:46
+Ruins:42</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{98953DBE-F75D-4E98-A51D-A9CFDE12294C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Felipe Tanus Rodrigues:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Experiência</t>
   </si>
@@ -47,207 +106,12 @@
   <si>
     <t>Qualidade</t>
   </si>
-  <si>
-    <t>dev full stack</t>
-  </si>
-  <si>
-    <t>dev pleno</t>
-  </si>
-  <si>
-    <t>dev back end</t>
-  </si>
-  <si>
-    <t>fullstack</t>
-  </si>
-  <si>
-    <t>frontend</t>
-  </si>
-  <si>
-    <t>senior backend</t>
-  </si>
-  <si>
-    <t>squad leader</t>
-  </si>
-  <si>
-    <t>fullstack pleno</t>
-  </si>
-  <si>
-    <t>master software engineer</t>
-  </si>
-  <si>
-    <t>front end pleno</t>
-  </si>
-  <si>
-    <t>senior full stack</t>
-  </si>
-  <si>
-    <t>eng software</t>
-  </si>
-  <si>
-    <t>eng software senior</t>
-  </si>
-  <si>
-    <t>cto</t>
-  </si>
-  <si>
-    <t>estagio</t>
-  </si>
-  <si>
-    <t>tec sistemas</t>
-  </si>
-  <si>
-    <t>program</t>
-  </si>
-  <si>
-    <t>tech lead</t>
-  </si>
-  <si>
-    <t>engenheiro da comp</t>
-  </si>
-  <si>
-    <t>eng soft trainee</t>
-  </si>
-  <si>
-    <t>system specialist</t>
-  </si>
-  <si>
-    <t>estasgia</t>
-  </si>
-  <si>
-    <t>seguranca</t>
-  </si>
-  <si>
-    <t>backend</t>
-  </si>
-  <si>
-    <t>ux designer</t>
-  </si>
-  <si>
-    <t>soft eng</t>
-  </si>
-  <si>
-    <t>eng soft</t>
-  </si>
-  <si>
-    <t>staff engin</t>
-  </si>
-  <si>
-    <t>sof eng</t>
-  </si>
-  <si>
-    <t>devops</t>
-  </si>
-  <si>
-    <t>eng sof</t>
-  </si>
-  <si>
-    <t>enf sof</t>
-  </si>
-  <si>
-    <t>estagio analytics</t>
-  </si>
-  <si>
-    <t>estagio gestao de operacao</t>
-  </si>
-  <si>
-    <t>estagio itau</t>
-  </si>
-  <si>
-    <t>analise de dados</t>
-  </si>
-  <si>
-    <t>esatagio</t>
-  </si>
-  <si>
-    <t>analista de bd</t>
-  </si>
-  <si>
-    <t>devops engineer</t>
-  </si>
-  <si>
-    <t>cloud architect</t>
-  </si>
-  <si>
-    <t>mobile developer</t>
-  </si>
-  <si>
-    <t>data scientist</t>
-  </si>
-  <si>
-    <t>dev secops</t>
-  </si>
-  <si>
-    <t>jr dev</t>
-  </si>
-  <si>
-    <t>estagiario</t>
-  </si>
-  <si>
-    <t>principal engineer</t>
-  </si>
-  <si>
-    <t>chief architect</t>
-  </si>
-  <si>
-    <t>database admin</t>
-  </si>
-  <si>
-    <t>qa engineer</t>
-  </si>
-  <si>
-    <t>solution architect</t>
-  </si>
-  <si>
-    <t>senior dev</t>
-  </si>
-  <si>
-    <t>help desk analyst</t>
-  </si>
-  <si>
-    <t>product manager</t>
-  </si>
-  <si>
-    <t>software tester</t>
-  </si>
-  <si>
-    <t>site reliability eng</t>
-  </si>
-  <si>
-    <t>it manager</t>
-  </si>
-  <si>
-    <t>estagiario support</t>
-  </si>
-  <si>
-    <t>senior consultant</t>
-  </si>
-  <si>
-    <t>jr data analyst</t>
-  </si>
-  <si>
-    <t>ai engineer</t>
-  </si>
-  <si>
-    <t>cybersecurity expert</t>
-  </si>
-  <si>
-    <t>devops specialist</t>
-  </si>
-  <si>
-    <t>junior dev</t>
-  </si>
-  <si>
-    <t>support analyst</t>
-  </si>
-  <si>
-    <t>Profissão</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,11 +136,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -443,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -463,7 +333,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,9 +346,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,10 +560,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -708,11 +574,10 @@
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="6" max="25" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,11 +593,8 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -746,14 +608,11 @@
         <v>8000</v>
       </c>
       <c r="E2" s="6" t="str">
-        <f>IF(D2/A2 &gt;= 2500, "BOM", "RUIM")</f>
-        <v>BOM</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(OR(D2/A2 &gt;= 2500,A2&gt;=8,D2&gt;=1000,B2&gt;=100,C2&gt;=350), "BOM", "RUIM")</f>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -767,14 +626,11 @@
         <v>7000</v>
       </c>
       <c r="E3" s="6" t="str">
-        <f>IF(D3/A3 &gt;= 2500, "BOM", "RUIM")</f>
-        <v>BOM</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E66" si="0">IF(OR(D3/A3 &gt;= 2500,A3&gt;=8,D3&gt;=10000,B3&gt;=100,C3&gt;=350), "BOM", "RUIM")</f>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>7</v>
       </c>
@@ -782,20 +638,17 @@
         <v>4</v>
       </c>
       <c r="C4" s="5">
-        <v>401</v>
+        <v>220</v>
       </c>
       <c r="D4" s="5">
         <v>7000</v>
       </c>
       <c r="E4" s="6" t="str">
-        <f>IF(D4/A4 &gt;= 2500, "BOM", "RUIM")</f>
-        <v>RUIM</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -809,14 +662,11 @@
         <v>5000</v>
       </c>
       <c r="E5" s="6" t="str">
-        <f>IF(D5/A5 &gt;= 2500, "BOM", "RUIM")</f>
-        <v>BOM</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -824,20 +674,17 @@
         <v>28</v>
       </c>
       <c r="C6" s="5">
-        <v>500</v>
+        <v>322</v>
       </c>
       <c r="D6" s="5">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="E6" s="6" t="str">
-        <f>IF(D6/A6 &gt;= 2500, "BOM", "RUIM")</f>
-        <v>RUIM</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <f>IF(OR(D6/A6 &gt;= 2500,A6&gt;=8,D6&gt;=10000,B6&gt;=100,C6&gt;=350), "BOM", "RUIM")</f>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -851,14 +698,11 @@
         <v>4000</v>
       </c>
       <c r="E7" s="6" t="str">
-        <f t="shared" ref="E7:E9" si="0">IF(D7/A7 &gt;= 2500, "BOM", "RUIM")</f>
-        <v>RUIM</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -873,13 +717,10 @@
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -887,20 +728,17 @@
         <v>3</v>
       </c>
       <c r="C9" s="5">
-        <v>480</v>
+        <v>310</v>
       </c>
       <c r="D9" s="5">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="E9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>RUIM</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -914,14 +752,11 @@
         <v>9000</v>
       </c>
       <c r="E10" s="6" t="str">
-        <f>IF(D10/A10 &gt;= 2500, "BOM", "RUIM")</f>
-        <v>BOM</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -935,14 +770,11 @@
         <v>13000</v>
       </c>
       <c r="E11" s="6" t="str">
-        <f t="shared" ref="E11:E13" si="1">IF(D11/A11 &gt;= 2500, "BOM", "RUIM")</f>
-        <v>RUIM</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>6</v>
       </c>
@@ -956,14 +788,11 @@
         <v>7000</v>
       </c>
       <c r="E12" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -977,14 +806,11 @@
         <v>10000</v>
       </c>
       <c r="E13" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -992,20 +818,17 @@
         <v>73</v>
       </c>
       <c r="C14" s="5">
-        <v>500</v>
+        <v>245</v>
       </c>
       <c r="D14" s="5">
-        <v>15000</v>
+        <v>7000</v>
       </c>
       <c r="E14" s="6" t="str">
-        <f>IF(D14/A14 &gt;= 2500, "BOM", "RUIM")</f>
-        <v>BOM</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>7</v>
       </c>
@@ -1019,14 +842,11 @@
         <v>15000</v>
       </c>
       <c r="E15" s="6" t="str">
-        <f t="shared" ref="E15:E21" si="2">IF(D15/A15 &gt;= 2500, "BOM", "RUIM")</f>
-        <v>RUIM</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>10</v>
       </c>
@@ -1040,14 +860,11 @@
         <v>15000</v>
       </c>
       <c r="E16" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1061,14 +878,11 @@
         <v>20000</v>
       </c>
       <c r="E17" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -1082,14 +896,11 @@
         <v>2000</v>
       </c>
       <c r="E18" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1</v>
       </c>
@@ -1103,14 +914,11 @@
         <v>2000</v>
       </c>
       <c r="E19" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -1124,14 +932,11 @@
         <v>3000</v>
       </c>
       <c r="E20" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -1145,35 +950,29 @@
         <v>2000</v>
       </c>
       <c r="E21" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>4</v>
       </c>
       <c r="B22" s="5">
-        <v>270</v>
+        <v>73</v>
       </c>
       <c r="C22" s="5">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="D22" s="5">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="E22" s="6" t="str">
-        <f>IF(D22/A22 &gt;= 2500, "BOM", "RUIM")</f>
-        <v>BOM</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>4</v>
       </c>
@@ -1187,14 +986,11 @@
         <v>5000</v>
       </c>
       <c r="E23" s="6" t="str">
-        <f>IF(D23/A23 &gt;= 2500, "BOM", "RUIM")</f>
-        <v>RUIM</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -1205,17 +1001,14 @@
         <v>190</v>
       </c>
       <c r="D24" s="5">
-        <v>17000</v>
+        <v>7000</v>
       </c>
       <c r="E24" s="6" t="str">
-        <f>IF(D24/A24 &gt;= 2500, "BOM", "RUIM")</f>
-        <v>BOM</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>4</v>
       </c>
@@ -1229,14 +1022,11 @@
         <v>6000</v>
       </c>
       <c r="E25" s="6" t="str">
-        <f t="shared" ref="E25:E88" si="3">IF(D25/A25 &gt;= 2500, "BOM", "RUIM")</f>
-        <v>RUIM</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -1250,14 +1040,11 @@
         <v>3000</v>
       </c>
       <c r="E26" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOM</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>6</v>
       </c>
@@ -1271,14 +1058,11 @@
         <v>10000</v>
       </c>
       <c r="E27" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>2</v>
       </c>
@@ -1292,14 +1076,11 @@
         <v>2000</v>
       </c>
       <c r="E28" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -1313,14 +1094,11 @@
         <v>2000</v>
       </c>
       <c r="E29" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>3</v>
       </c>
@@ -1334,14 +1112,11 @@
         <v>5000</v>
       </c>
       <c r="E30" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -1355,14 +1130,11 @@
         <v>8000</v>
       </c>
       <c r="E31" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOM</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1</v>
       </c>
@@ -1376,35 +1148,29 @@
         <v>5000</v>
       </c>
       <c r="E32" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOM</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="5">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C33" s="5">
-        <v>467</v>
+        <v>51</v>
       </c>
       <c r="D33" s="5">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="E33" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>4</v>
       </c>
@@ -1418,14 +1184,11 @@
         <v>10000</v>
       </c>
       <c r="E34" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOM</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2</v>
       </c>
@@ -1439,14 +1202,11 @@
         <v>2000</v>
       </c>
       <c r="E35" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>5</v>
       </c>
@@ -1460,14 +1220,11 @@
         <v>5000</v>
       </c>
       <c r="E36" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>2</v>
       </c>
@@ -1481,14 +1238,11 @@
         <v>2000</v>
       </c>
       <c r="E37" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>7</v>
       </c>
@@ -1502,14 +1256,11 @@
         <v>12000</v>
       </c>
       <c r="E38" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>5</v>
       </c>
@@ -1523,35 +1274,29 @@
         <v>12000</v>
       </c>
       <c r="E39" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B40" s="5">
         <v>7</v>
       </c>
       <c r="C40" s="5">
-        <v>500</v>
+        <v>82</v>
       </c>
       <c r="D40" s="5">
-        <v>19000</v>
+        <v>6000</v>
       </c>
       <c r="E40" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>7</v>
       </c>
@@ -1565,14 +1310,11 @@
         <v>5000</v>
       </c>
       <c r="E41" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>3</v>
       </c>
@@ -1586,14 +1328,11 @@
         <v>5000</v>
       </c>
       <c r="E42" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>3</v>
       </c>
@@ -1607,14 +1346,11 @@
         <v>10000</v>
       </c>
       <c r="E43" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOM</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>1</v>
       </c>
@@ -1628,14 +1364,11 @@
         <v>2000</v>
       </c>
       <c r="E44" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>3</v>
       </c>
@@ -1649,35 +1382,29 @@
         <v>9000</v>
       </c>
       <c r="E45" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOM</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46" s="5">
         <v>7</v>
       </c>
       <c r="C46" s="5">
-        <v>500</v>
+        <v>215</v>
       </c>
       <c r="D46" s="5">
-        <v>13000</v>
+        <v>9000</v>
       </c>
       <c r="E46" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOM</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>9</v>
       </c>
@@ -1691,14 +1418,11 @@
         <v>13000</v>
       </c>
       <c r="E47" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>14</v>
       </c>
@@ -1712,14 +1436,11 @@
         <v>20000</v>
       </c>
       <c r="E48" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>4</v>
       </c>
@@ -1730,17 +1451,14 @@
         <v>34</v>
       </c>
       <c r="D49" s="5">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="E49" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOM</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>4</v>
       </c>
@@ -1751,17 +1469,14 @@
         <v>172</v>
       </c>
       <c r="D50" s="5">
-        <v>14000</v>
+        <v>8000</v>
       </c>
       <c r="E50" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOM</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>5</v>
       </c>
@@ -1775,14 +1490,11 @@
         <v>13000</v>
       </c>
       <c r="E51" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOM</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>3</v>
       </c>
@@ -1796,14 +1508,11 @@
         <v>2000</v>
       </c>
       <c r="E52" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>1</v>
       </c>
@@ -1817,14 +1526,11 @@
         <v>2000</v>
       </c>
       <c r="E53" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>3</v>
       </c>
@@ -1838,14 +1544,11 @@
         <v>3000</v>
       </c>
       <c r="E54" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>2</v>
       </c>
@@ -1859,14 +1562,11 @@
         <v>3000</v>
       </c>
       <c r="E55" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>3</v>
       </c>
@@ -1874,20 +1574,17 @@
         <v>10</v>
       </c>
       <c r="C56" s="5">
-        <v>435</v>
+        <v>210</v>
       </c>
       <c r="D56" s="5">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="E56" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOM</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>1</v>
       </c>
@@ -1901,14 +1598,11 @@
         <v>2000</v>
       </c>
       <c r="E57" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>1</v>
       </c>
@@ -1922,14 +1616,11 @@
         <v>2000</v>
       </c>
       <c r="E58" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>8</v>
       </c>
@@ -1943,14 +1634,11 @@
         <v>15000</v>
       </c>
       <c r="E59" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>5</v>
       </c>
@@ -1964,14 +1652,11 @@
         <v>13000</v>
       </c>
       <c r="E60" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOM</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>7</v>
       </c>
@@ -1985,14 +1670,11 @@
         <v>6000</v>
       </c>
       <c r="E61" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>2</v>
       </c>
@@ -2006,609 +1688,528 @@
         <v>3000</v>
       </c>
       <c r="E62" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F62" s="7" t="s">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7">
+        <v>4</v>
+      </c>
+      <c r="B63" s="7">
+        <v>8</v>
+      </c>
+      <c r="C63" s="7">
+        <v>150</v>
+      </c>
+      <c r="D63" s="7">
+        <v>9000</v>
+      </c>
+      <c r="E63" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7">
+        <v>5</v>
+      </c>
+      <c r="B64" s="7">
+        <v>12</v>
+      </c>
+      <c r="C64" s="7">
+        <v>380</v>
+      </c>
+      <c r="D64" s="7">
+        <v>12000</v>
+      </c>
+      <c r="E64" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>3</v>
+      </c>
+      <c r="B65" s="7">
+        <v>2</v>
+      </c>
+      <c r="C65" s="7">
+        <v>210</v>
+      </c>
+      <c r="D65" s="7">
+        <v>7000</v>
+      </c>
+      <c r="E65" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>8</v>
+      </c>
+      <c r="B66" s="7">
+        <v>34</v>
+      </c>
+      <c r="C66" s="7">
+        <v>500</v>
+      </c>
+      <c r="D66" s="7">
+        <v>16000</v>
+      </c>
+      <c r="E66" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7">
+        <v>6</v>
+      </c>
+      <c r="B67" s="7">
+        <v>5</v>
+      </c>
+      <c r="C67" s="7">
+        <v>320</v>
+      </c>
+      <c r="D67" s="7">
+        <v>9000</v>
+      </c>
+      <c r="E67" s="6" t="str">
+        <f t="shared" ref="E67:E88" si="1">IF(OR(D67/A67 &gt;= 2500,A67&gt;=8,D67&gt;=10000,B67&gt;=100,C67&gt;=350), "BOM", "RUIM")</f>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7">
+        <v>2</v>
+      </c>
+      <c r="B68" s="7">
+        <v>0</v>
+      </c>
+      <c r="C68" s="7">
+        <v>180</v>
+      </c>
+      <c r="D68" s="7">
+        <v>4000</v>
+      </c>
+      <c r="E68" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>1</v>
+      </c>
+      <c r="B69" s="7">
+        <v>3</v>
+      </c>
+      <c r="C69" s="7">
+        <v>140</v>
+      </c>
+      <c r="D69" s="7">
+        <v>2500</v>
+      </c>
+      <c r="E69" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>9</v>
+      </c>
+      <c r="B70" s="7">
         <v>42</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
+      <c r="C70" s="7">
+        <v>500</v>
+      </c>
+      <c r="D70" s="7">
+        <v>17000</v>
+      </c>
+      <c r="E70" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>12</v>
+      </c>
+      <c r="B71" s="7">
+        <v>67</v>
+      </c>
+      <c r="C71" s="7">
+        <v>500</v>
+      </c>
+      <c r="D71" s="7">
+        <v>21000</v>
+      </c>
+      <c r="E71" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
         <v>4</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B72" s="7">
+        <v>6</v>
+      </c>
+      <c r="C72" s="7">
+        <v>290</v>
+      </c>
+      <c r="D72" s="7">
+        <v>8000</v>
+      </c>
+      <c r="E72" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>3</v>
+      </c>
+      <c r="B73" s="7">
+        <v>1</v>
+      </c>
+      <c r="C73" s="7">
+        <v>210</v>
+      </c>
+      <c r="D73" s="7">
+        <v>8000</v>
+      </c>
+      <c r="E73" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>7</v>
+      </c>
+      <c r="B74" s="7">
+        <v>18</v>
+      </c>
+      <c r="C74" s="7">
+        <v>320</v>
+      </c>
+      <c r="D74" s="7">
+        <v>9000</v>
+      </c>
+      <c r="E74" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>10</v>
+      </c>
+      <c r="B75" s="7">
+        <v>48</v>
+      </c>
+      <c r="C75" s="7">
+        <v>500</v>
+      </c>
+      <c r="D75" s="7">
+        <v>20000</v>
+      </c>
+      <c r="E75" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>2</v>
+      </c>
+      <c r="B76" s="7">
+        <v>1</v>
+      </c>
+      <c r="C76" s="7">
+        <v>130</v>
+      </c>
+      <c r="D76" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E76" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>5</v>
+      </c>
+      <c r="B77" s="7">
+        <v>20</v>
+      </c>
+      <c r="C77" s="7">
+        <v>310</v>
+      </c>
+      <c r="D77" s="7">
+        <v>9000</v>
+      </c>
+      <c r="E77" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>3</v>
+      </c>
+      <c r="B78" s="7">
+        <v>4</v>
+      </c>
+      <c r="C78" s="7">
+        <v>170</v>
+      </c>
+      <c r="D78" s="7">
+        <v>6000</v>
+      </c>
+      <c r="E78" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>6</v>
+      </c>
+      <c r="B79" s="7">
+        <v>7</v>
+      </c>
+      <c r="C79" s="7">
+        <v>340</v>
+      </c>
+      <c r="D79" s="7">
+        <v>14000</v>
+      </c>
+      <c r="E79" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
         <v>8</v>
       </c>
-      <c r="C63" s="8">
-        <v>150</v>
-      </c>
-      <c r="D63" s="8">
-        <v>9000</v>
-      </c>
-      <c r="E63" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
-        <v>5</v>
-      </c>
-      <c r="B64" s="8">
+      <c r="B80" s="7">
+        <v>25</v>
+      </c>
+      <c r="C80" s="7">
+        <v>500</v>
+      </c>
+      <c r="D80" s="7">
+        <v>16000</v>
+      </c>
+      <c r="E80" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>1</v>
+      </c>
+      <c r="B81" s="7">
+        <v>0</v>
+      </c>
+      <c r="C81" s="7">
+        <v>55</v>
+      </c>
+      <c r="D81" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E81" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>11</v>
+      </c>
+      <c r="B82" s="7">
+        <v>52</v>
+      </c>
+      <c r="C82" s="7">
+        <v>500</v>
+      </c>
+      <c r="D82" s="7">
+        <v>19000</v>
+      </c>
+      <c r="E82" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>4</v>
+      </c>
+      <c r="B83" s="7">
+        <v>3</v>
+      </c>
+      <c r="C83" s="7">
+        <v>180</v>
+      </c>
+      <c r="D83" s="7">
+        <v>8000</v>
+      </c>
+      <c r="E83" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>7</v>
+      </c>
+      <c r="B84" s="7">
+        <v>9</v>
+      </c>
+      <c r="C84" s="7">
+        <v>360</v>
+      </c>
+      <c r="D84" s="7">
+        <v>15000</v>
+      </c>
+      <c r="E84" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>4</v>
+      </c>
+      <c r="B85" s="7">
+        <v>15</v>
+      </c>
+      <c r="C85" s="7">
+        <v>310</v>
+      </c>
+      <c r="D85" s="7">
+        <v>8000</v>
+      </c>
+      <c r="E85" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>6</v>
+      </c>
+      <c r="B86" s="7">
         <v>12</v>
       </c>
-      <c r="C64" s="8">
-        <v>380</v>
-      </c>
-      <c r="D64" s="8">
-        <v>12000</v>
-      </c>
-      <c r="E64" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+      <c r="C86" s="7">
+        <v>320</v>
+      </c>
+      <c r="D86" s="7">
+        <v>14000</v>
+      </c>
+      <c r="E86" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
         <v>3</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B87" s="7">
+        <v>1</v>
+      </c>
+      <c r="C87" s="7">
+        <v>210</v>
+      </c>
+      <c r="D87" s="7">
+        <v>7000</v>
+      </c>
+      <c r="E87" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>RUIM</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
         <v>2</v>
       </c>
-      <c r="C65" s="8">
-        <v>210</v>
-      </c>
-      <c r="D65" s="8">
-        <v>7000</v>
-      </c>
-      <c r="E65" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
-        <v>8</v>
-      </c>
-      <c r="B66" s="8">
-        <v>34</v>
-      </c>
-      <c r="C66" s="8">
-        <v>500</v>
-      </c>
-      <c r="D66" s="8">
-        <v>16000</v>
-      </c>
-      <c r="E66" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
-        <v>6</v>
-      </c>
-      <c r="B67" s="8">
-        <v>5</v>
-      </c>
-      <c r="C67" s="8">
-        <v>320</v>
-      </c>
-      <c r="D67" s="8">
-        <v>14000</v>
-      </c>
-      <c r="E67" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
-        <v>2</v>
-      </c>
-      <c r="B68" s="8">
+      <c r="B88" s="7">
         <v>0</v>
       </c>
-      <c r="C68" s="8">
-        <v>180</v>
-      </c>
-      <c r="D68" s="8">
-        <v>4000</v>
-      </c>
-      <c r="E68" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
-        <v>1</v>
-      </c>
-      <c r="B69" s="8">
-        <v>3</v>
-      </c>
-      <c r="C69" s="8">
-        <v>140</v>
-      </c>
-      <c r="D69" s="8">
-        <v>2500</v>
-      </c>
-      <c r="E69" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOM</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
-        <v>9</v>
-      </c>
-      <c r="B70" s="8">
-        <v>42</v>
-      </c>
-      <c r="C70" s="8">
-        <v>500</v>
-      </c>
-      <c r="D70" s="8">
-        <v>17000</v>
-      </c>
-      <c r="E70" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
-        <v>12</v>
-      </c>
-      <c r="B71" s="8">
-        <v>67</v>
-      </c>
-      <c r="C71" s="8">
-        <v>500</v>
-      </c>
-      <c r="D71" s="8">
-        <v>21000</v>
-      </c>
-      <c r="E71" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
-        <v>4</v>
-      </c>
-      <c r="B72" s="8">
-        <v>6</v>
-      </c>
-      <c r="C72" s="8">
-        <v>290</v>
-      </c>
-      <c r="D72" s="8">
-        <v>11000</v>
-      </c>
-      <c r="E72" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOM</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
-        <v>3</v>
-      </c>
-      <c r="B73" s="8">
-        <v>1</v>
-      </c>
-      <c r="C73" s="8">
-        <v>210</v>
-      </c>
-      <c r="D73" s="8">
-        <v>8000</v>
-      </c>
-      <c r="E73" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOM</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
-        <v>7</v>
-      </c>
-      <c r="B74" s="8">
-        <v>18</v>
-      </c>
-      <c r="C74" s="8">
-        <v>500</v>
-      </c>
-      <c r="D74" s="8">
-        <v>15000</v>
-      </c>
-      <c r="E74" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
-        <v>10</v>
-      </c>
-      <c r="B75" s="8">
-        <v>48</v>
-      </c>
-      <c r="C75" s="8">
-        <v>500</v>
-      </c>
-      <c r="D75" s="8">
-        <v>20000</v>
-      </c>
-      <c r="E75" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="8">
-        <v>2</v>
-      </c>
-      <c r="B76" s="8">
-        <v>1</v>
-      </c>
-      <c r="C76" s="8">
-        <v>130</v>
-      </c>
-      <c r="D76" s="8">
-        <v>3000</v>
-      </c>
-      <c r="E76" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
-        <v>5</v>
-      </c>
-      <c r="B77" s="8">
-        <v>20</v>
-      </c>
-      <c r="C77" s="8">
-        <v>500</v>
-      </c>
-      <c r="D77" s="8">
-        <v>13000</v>
-      </c>
-      <c r="E77" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOM</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
-        <v>3</v>
-      </c>
-      <c r="B78" s="8">
-        <v>4</v>
-      </c>
-      <c r="C78" s="8">
+      <c r="C88" s="7">
         <v>170</v>
       </c>
-      <c r="D78" s="8">
-        <v>6000</v>
-      </c>
-      <c r="E78" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="8">
-        <v>6</v>
-      </c>
-      <c r="B79" s="8">
-        <v>7</v>
-      </c>
-      <c r="C79" s="8">
-        <v>340</v>
-      </c>
-      <c r="D79" s="8">
-        <v>14000</v>
-      </c>
-      <c r="E79" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="8">
-        <v>8</v>
-      </c>
-      <c r="B80" s="8">
-        <v>25</v>
-      </c>
-      <c r="C80" s="8">
-        <v>500</v>
-      </c>
-      <c r="D80" s="8">
-        <v>16000</v>
-      </c>
-      <c r="E80" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="8">
-        <v>1</v>
-      </c>
-      <c r="B81" s="8">
-        <v>0</v>
-      </c>
-      <c r="C81" s="8">
-        <v>55</v>
-      </c>
-      <c r="D81" s="8">
-        <v>2000</v>
-      </c>
-      <c r="E81" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8">
-        <v>11</v>
-      </c>
-      <c r="B82" s="8">
-        <v>52</v>
-      </c>
-      <c r="C82" s="8">
-        <v>500</v>
-      </c>
-      <c r="D82" s="8">
-        <v>19000</v>
-      </c>
-      <c r="E82" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="8">
-        <v>4</v>
-      </c>
-      <c r="B83" s="8">
-        <v>3</v>
-      </c>
-      <c r="C83" s="8">
-        <v>180</v>
-      </c>
-      <c r="D83" s="8">
-        <v>8000</v>
-      </c>
-      <c r="E83" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="8">
-        <v>7</v>
-      </c>
-      <c r="B84" s="8">
-        <v>9</v>
-      </c>
-      <c r="C84" s="8">
-        <v>360</v>
-      </c>
-      <c r="D84" s="8">
-        <v>15000</v>
-      </c>
-      <c r="E84" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
-        <v>5</v>
-      </c>
-      <c r="B85" s="8">
-        <v>15</v>
-      </c>
-      <c r="C85" s="8">
-        <v>500</v>
-      </c>
-      <c r="D85" s="8">
-        <v>13000</v>
-      </c>
-      <c r="E85" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOM</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8">
-        <v>6</v>
-      </c>
-      <c r="B86" s="8">
-        <v>12</v>
-      </c>
-      <c r="C86" s="8">
-        <v>320</v>
-      </c>
-      <c r="D86" s="8">
-        <v>14000</v>
-      </c>
-      <c r="E86" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="8">
-        <v>3</v>
-      </c>
-      <c r="B87" s="8">
-        <v>1</v>
-      </c>
-      <c r="C87" s="8">
-        <v>210</v>
-      </c>
-      <c r="D87" s="8">
-        <v>7000</v>
-      </c>
-      <c r="E87" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>RUIM</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="8">
-        <v>2</v>
-      </c>
-      <c r="B88" s="8">
-        <v>0</v>
-      </c>
-      <c r="C88" s="8">
-        <v>170</v>
-      </c>
-      <c r="D88" s="8">
+      <c r="D88" s="7">
         <v>5000</v>
       </c>
       <c r="E88" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>BOM</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>BOM</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
     </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="6"/>
     </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
     </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="6"/>
     </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="6"/>
     </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="6"/>
     </row>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -2637,14 +2238,14 @@
       <c r="E99" s="6"/>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="11"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="10"/>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
+      <c r="A101" s="11"/>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3548,5 +3149,6 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>